--- a/database/seeders/ACCESOSIMPORTADOS.xlsx
+++ b/database/seeders/ACCESOSIMPORTADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GitComponentes\Seguimiento\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09064C8-0832-4F68-9D84-0BADFD6A6A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55769541-8ECE-4E89-805B-CEC85B377A2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="298">
   <si>
     <t>permiso</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>index,edit,show,accionesconsulta</t>
+  </si>
+  <si>
+    <t>acuerdoconclusionautorizacion</t>
   </si>
 </sst>
 </file>
@@ -1571,12 +1574,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,58 +4094,42 @@
       <c r="M78" s="62"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="I79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="K79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="L79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="M79" s="25" t="s">
-        <v>196</v>
-      </c>
+      <c r="A79" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>195</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>196</v>
@@ -4160,7 +4147,7 @@
         <v>196</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K80" s="25" t="s">
         <v>196</v>
@@ -4177,40 +4164,40 @@
         <v>195</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="G81" s="25" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L81" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M81" s="24" t="s">
-        <v>2</v>
+        <v>196</v>
+      </c>
+      <c r="L81" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M81" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4218,32 +4205,48 @@
         <v>195</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I82" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="J82" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="K82" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M82" s="24" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>195</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>133</v>
@@ -4254,10 +4257,10 @@
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="I83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
       <c r="L83" s="24"/>
@@ -4268,7 +4271,7 @@
         <v>195</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>133</v>
@@ -4278,10 +4281,10 @@
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25" t="s">
+        <v>133</v>
+      </c>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
@@ -4293,48 +4296,32 @@
         <v>195</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I85" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="K85" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="L85" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="M85" s="25" t="s">
-        <v>5</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>195</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>149</v>
@@ -4375,7 +4362,7 @@
         <v>195</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>149</v>
@@ -4383,73 +4370,73 @@
       <c r="D87" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I87" s="26" t="s">
+      <c r="E87" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="27" t="s">
         <v>5</v>
       </c>
       <c r="J87" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="K87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="L87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="M87" s="24" t="s">
+      <c r="K87" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L87" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="J88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="K88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="L88" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="M88" s="29" t="s">
-        <v>196</v>
+      <c r="A88" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88" s="24" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4457,40 +4444,40 @@
         <v>198</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="G89" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="H89" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="I89" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="J89" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="K89" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="L89" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="M89" s="32" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L89" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="M89" s="29" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4498,40 +4485,40 @@
         <v>198</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="L90" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="29" t="s">
-        <v>2</v>
+        <v>199</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="J90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L90" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="M90" s="32" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4539,40 +4526,40 @@
         <v>198</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="33" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="K91" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="L91" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="33" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="L91" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" s="29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4580,40 +4567,40 @@
         <v>198</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="K92" s="29" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="M92" s="33" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4621,40 +4608,40 @@
         <v>198</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G93" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H93" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I93" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J93" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H93" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J93" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="K93" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="L93" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="M93" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="L93" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="M93" s="33" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4662,81 +4649,81 @@
         <v>198</v>
       </c>
       <c r="B94" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="K94" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L94" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M94" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C95" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D95" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="29" t="s">
+      <c r="E95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K95" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="L94" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="G95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="I95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="K95" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="L95" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="M95" s="31" t="s">
-        <v>189</v>
+      <c r="L95" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="29" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4744,89 +4731,105 @@
         <v>198</v>
       </c>
       <c r="B96" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K96" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="L96" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="D96" s="32" t="s">
+      <c r="D97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E96" s="32" t="s">
+      <c r="E97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F96" s="32" t="s">
+      <c r="F97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="G96" s="32" t="s">
+      <c r="G97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="H96" s="32" t="s">
+      <c r="H97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I96" s="32" t="s">
+      <c r="I97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="J96" s="32" t="s">
+      <c r="J97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="K96" s="32" t="s">
+      <c r="K97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="L96" s="32" t="s">
+      <c r="L97" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="M96" s="32" t="s">
+      <c r="M97" s="32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>198</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
-      <c r="J98" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
     </row>
@@ -4835,32 +4838,32 @@
         <v>198</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
-      <c r="I99" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="33" t="s">
+        <v>133</v>
+      </c>
       <c r="K99" s="29"/>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="32" t="s">
-        <v>50</v>
+      <c r="B100" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="C100" s="29" t="s">
         <v>133</v>
@@ -4868,24 +4871,24 @@
       <c r="D100" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="32"/>
-      <c r="M100" s="32"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>198</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>133</v>
@@ -4895,10 +4898,10 @@
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="32"/>
-      <c r="G101" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H101" s="31"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="31" t="s">
+        <v>133</v>
+      </c>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
       <c r="K101" s="32"/>
@@ -4910,81 +4913,65 @@
         <v>198</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="L102" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="29" t="s">
-        <v>5</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H102" s="31"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B103" s="29" t="s">
-        <v>53</v>
+      <c r="B103" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="I103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="J103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="K103" s="29" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="L103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="M103" s="29" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4992,77 +4979,77 @@
         <v>198</v>
       </c>
       <c r="B104" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L104" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="M104" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="F104" s="29" t="s">
+      <c r="F105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29" t="s">
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="K104" s="29" t="s">
+      <c r="K105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="L104" s="29" t="s">
+      <c r="L105" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="M104" s="29" t="s">
+      <c r="M105" s="29" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="F105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="J105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="L105" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="M105" s="36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5070,7 +5057,7 @@
         <v>206</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" s="36" t="s">
         <v>196</v>
@@ -5079,31 +5066,31 @@
         <v>196</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="I106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="K106" s="36" t="s">
         <v>196</v>
       </c>
       <c r="L106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="M106" s="36" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5111,81 +5098,81 @@
         <v>206</v>
       </c>
       <c r="B107" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="H107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="J107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="K107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="L107" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="M107" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L107" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M107" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B108" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="I108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="J108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="K108" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L108" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M108" s="38" t="s">
-        <v>189</v>
+      <c r="C108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L108" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M108" s="36" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5193,120 +5180,120 @@
         <v>206</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="38"/>
+        <v>201</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>189</v>
+      </c>
       <c r="F109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="H109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="J109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="K109" s="37" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="L109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="M109" s="38" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E110" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F110" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G110" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H110" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I110" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="J110" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="K110" s="36" t="s">
-        <v>201</v>
+      <c r="B110" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G110" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="H110" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I110" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J110" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="K110" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="L110" s="38" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="M110" s="38" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B111" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J111" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="K111" s="37" t="s">
-        <v>149</v>
+      <c r="B111" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G111" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H111" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I111" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="J111" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K111" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="L111" s="38" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="M111" s="38" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5314,57 +5301,73 @@
         <v>206</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="K112" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="37"/>
-      <c r="M112" s="37"/>
+        <v>149</v>
+      </c>
+      <c r="L112" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M112" s="38" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="36" t="s">
-        <v>63</v>
+      <c r="B113" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D113" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="K113" s="36"/>
-      <c r="L113" s="35"/>
-      <c r="M113" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
         <v>206</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C114" s="37" t="s">
         <v>133</v>
@@ -5376,10 +5379,10 @@
       <c r="F114" s="36"/>
       <c r="G114" s="36"/>
       <c r="H114" s="36"/>
-      <c r="I114" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="J114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="K114" s="36"/>
       <c r="L114" s="35"/>
       <c r="M114" s="35"/>
@@ -5389,7 +5392,7 @@
         <v>206</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>133</v>
@@ -5400,10 +5403,10 @@
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
       <c r="G115" s="36"/>
-      <c r="H115" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="I115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="J115" s="36"/>
       <c r="K115" s="36"/>
       <c r="L115" s="35"/>
@@ -5414,7 +5417,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C116" s="37" t="s">
         <v>133</v>
@@ -5424,10 +5427,10 @@
       </c>
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
-      <c r="G116" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
       <c r="K116" s="36"/>
@@ -5438,123 +5441,107 @@
       <c r="A117" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B117" s="37" t="s">
-        <v>67</v>
+      <c r="B117" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="E117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="I117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="J117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="K117" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="L117" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M117" s="38" t="s">
-        <v>189</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
         <v>206</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="F118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="I118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="J118" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="J118" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="K118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="L118" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="M118" s="37" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="L118" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M118" s="38" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B119" s="36" t="s">
-        <v>68</v>
+      <c r="B119" s="37" t="s">
+        <v>211</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K119" s="37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M119" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5562,81 +5549,81 @@
         <v>206</v>
       </c>
       <c r="B120" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K120" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="L120" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="M120" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="D121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="E120" s="37" t="s">
+      <c r="E121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="F120" s="37" t="s">
+      <c r="F121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="G120" s="37" t="s">
+      <c r="G121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="H120" s="37" t="s">
+      <c r="H121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="I120" s="37" t="s">
+      <c r="I121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="J120" s="37" t="s">
+      <c r="J121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="K120" s="37" t="s">
+      <c r="K121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="L120" s="37" t="s">
+      <c r="L121" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="M120" s="37" t="s">
+      <c r="M121" s="37" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="B121" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="E121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="J121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="K121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="L121" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="M121" s="39" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5644,7 +5631,7 @@
         <v>212</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C122" s="39" t="s">
         <v>196</v>
@@ -5653,31 +5640,31 @@
         <v>196</v>
       </c>
       <c r="E122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="H122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="I122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="J122" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K122" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="K122" s="39" t="s">
         <v>196</v>
       </c>
       <c r="L122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="M122" s="39" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5685,40 +5672,40 @@
         <v>212</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="H123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="I123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="J123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="L123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M123" s="39" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5726,40 +5713,40 @@
         <v>212</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C124" s="39" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D124" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="G124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="H124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="J124" s="42" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="E124" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F124" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G124" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H124" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="I124" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J124" s="39" t="s">
+        <v>213</v>
       </c>
       <c r="K124" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="L124" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="M124" s="42" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="L124" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="M124" s="39" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5767,40 +5754,40 @@
         <v>212</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="C125" s="39" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D125" s="39" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="J125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="K125" s="39" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="L125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="M125" s="42" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5808,40 +5795,40 @@
         <v>212</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D126" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E126" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F126" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="G126" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H126" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="I126" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="J126" s="39" t="s">
-        <v>189</v>
+        <v>216</v>
+      </c>
+      <c r="E126" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G126" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H126" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="I126" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="J126" s="42" t="s">
+        <v>216</v>
       </c>
       <c r="K126" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="L126" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="M126" s="39" t="s">
-        <v>189</v>
+        <v>216</v>
+      </c>
+      <c r="L126" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="M126" s="42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5849,40 +5836,40 @@
         <v>212</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="D127" s="39" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="E127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="F127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="G127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="H127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="I127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="J127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="K127" s="39" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="L127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="M127" s="39" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5890,40 +5877,40 @@
         <v>212</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="D128" s="39" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="H128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="I128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="J128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="K128" s="39" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="L128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="M128" s="39" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5931,40 +5918,40 @@
         <v>212</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="I129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="K129" s="39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M129" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5972,48 +5959,64 @@
         <v>212</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="D130" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="40"/>
+        <v>207</v>
+      </c>
+      <c r="E130" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F130" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I130" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="J130" s="39" t="s">
+        <v>207</v>
+      </c>
       <c r="K130" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
+        <v>207</v>
+      </c>
+      <c r="L130" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="M130" s="39" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="39" t="s">
         <v>212</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D131" s="39" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E131" s="40"/>
       <c r="F131" s="40"/>
       <c r="G131" s="40"/>
       <c r="H131" s="40"/>
       <c r="I131" s="40"/>
-      <c r="J131" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="K131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="L131" s="41"/>
       <c r="M131" s="41"/>
     </row>
@@ -6022,7 +6025,7 @@
         <v>212</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C132" s="39" t="s">
         <v>133</v>
@@ -6034,10 +6037,10 @@
       <c r="F132" s="40"/>
       <c r="G132" s="40"/>
       <c r="H132" s="40"/>
-      <c r="I132" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="J132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="K132" s="40"/>
       <c r="L132" s="41"/>
       <c r="M132" s="41"/>
@@ -6047,7 +6050,7 @@
         <v>212</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>133</v>
@@ -6058,10 +6061,10 @@
       <c r="E133" s="40"/>
       <c r="F133" s="40"/>
       <c r="G133" s="40"/>
-      <c r="H133" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="J133" s="40"/>
       <c r="K133" s="40"/>
       <c r="L133" s="41"/>
@@ -6072,7 +6075,7 @@
         <v>212</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="39" t="s">
         <v>133</v>
@@ -6082,10 +6085,10 @@
       </c>
       <c r="E134" s="40"/>
       <c r="F134" s="40"/>
-      <c r="G134" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="I134" s="40"/>
       <c r="J134" s="40"/>
       <c r="K134" s="40"/>
@@ -6097,122 +6100,106 @@
         <v>212</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="D135" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="G135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="H135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="J135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="K135" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="L135" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="M135" s="39" t="s">
-        <v>210</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="41"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="39" t="s">
         <v>212</v>
       </c>
       <c r="B136" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D136" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="H136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="K136" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="L136" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="M136" s="39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C136" s="39" t="s">
+      <c r="C137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="D136" s="39" t="s">
+      <c r="D137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="E136" s="39" t="s">
+      <c r="E137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="F136" s="39" t="s">
+      <c r="F137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G136" s="39" t="s">
+      <c r="G137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="H136" s="39" t="s">
+      <c r="H137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I136" s="39" t="s">
+      <c r="I137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="J136" s="39" t="s">
+      <c r="J137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="K136" s="39" t="s">
+      <c r="K137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="L136" s="39" t="s">
+      <c r="L137" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="M136" s="39" t="s">
+      <c r="M137" s="39" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="G137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="H137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="I137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="J137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="K137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="L137" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="M137" s="43" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6220,40 +6207,40 @@
         <v>218</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D138" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K138" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M138" s="6" t="s">
-        <v>4</v>
+        <v>196</v>
+      </c>
+      <c r="D138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="J138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="L138" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="M138" s="43" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6261,32 +6248,48 @@
         <v>218</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D139" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
+      <c r="D139" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K139" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
+      <c r="L139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="43" t="s">
         <v>218</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>133</v>
@@ -6299,10 +6302,10 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="K140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
     </row>
@@ -6311,7 +6314,7 @@
         <v>218</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>133</v>
@@ -6323,10 +6326,10 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
-      <c r="I141" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="J141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="K141" s="6"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
@@ -6336,7 +6339,7 @@
         <v>218</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>219</v>
+        <v>87</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>133</v>
@@ -6347,10 +6350,10 @@
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="I142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="5"/>
@@ -6361,7 +6364,7 @@
         <v>218</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" s="43" t="s">
         <v>133</v>
@@ -6371,10 +6374,10 @@
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -6382,77 +6385,77 @@
       <c r="M143" s="5"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="45" t="s">
+      <c r="A144" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B144" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D144" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="K144" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="L144" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M144" s="46" t="s">
-        <v>4</v>
-      </c>
+      <c r="B144" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
         <v>218</v>
       </c>
       <c r="B145" s="46" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C145" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D145" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="46"/>
+      <c r="D145" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E145" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F145" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I145" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J145" s="46" t="s">
+        <v>4</v>
+      </c>
       <c r="K145" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="L145" s="48"/>
-      <c r="M145" s="48"/>
+      <c r="L145" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M145" s="46" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
         <v>218</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" s="45" t="s">
         <v>133</v>
@@ -6465,10 +6468,10 @@
       <c r="G146" s="46"/>
       <c r="H146" s="46"/>
       <c r="I146" s="46"/>
-      <c r="J146" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="K146" s="46"/>
+      <c r="J146" s="46"/>
+      <c r="K146" s="46" t="s">
+        <v>133</v>
+      </c>
       <c r="L146" s="48"/>
       <c r="M146" s="48"/>
     </row>
@@ -6477,7 +6480,7 @@
         <v>218</v>
       </c>
       <c r="B147" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C147" s="45" t="s">
         <v>133</v>
@@ -6489,10 +6492,10 @@
       <c r="F147" s="46"/>
       <c r="G147" s="46"/>
       <c r="H147" s="46"/>
-      <c r="I147" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="J147" s="46"/>
+      <c r="I147" s="46"/>
+      <c r="J147" s="45" t="s">
+        <v>133</v>
+      </c>
       <c r="K147" s="46"/>
       <c r="L147" s="48"/>
       <c r="M147" s="48"/>
@@ -6502,7 +6505,7 @@
         <v>218</v>
       </c>
       <c r="B148" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C148" s="45" t="s">
         <v>133</v>
@@ -6513,10 +6516,10 @@
       <c r="E148" s="46"/>
       <c r="F148" s="46"/>
       <c r="G148" s="46"/>
-      <c r="H148" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="I148" s="46"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="45" t="s">
+        <v>133</v>
+      </c>
       <c r="J148" s="46"/>
       <c r="K148" s="46"/>
       <c r="L148" s="48"/>
@@ -6527,7 +6530,7 @@
         <v>218</v>
       </c>
       <c r="B149" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C149" s="45" t="s">
         <v>133</v>
@@ -6537,10 +6540,10 @@
       </c>
       <c r="E149" s="46"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H149" s="46"/>
+      <c r="G149" s="46"/>
+      <c r="H149" s="45" t="s">
+        <v>133</v>
+      </c>
       <c r="I149" s="46"/>
       <c r="J149" s="46"/>
       <c r="K149" s="46"/>
@@ -6548,52 +6551,36 @@
       <c r="M149" s="48"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="49" t="s">
+      <c r="A150" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B150" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D150" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="E150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="J150" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="K150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="L150" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="M150" s="49" t="s">
-        <v>4</v>
-      </c>
+      <c r="B150" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C150" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D150" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150" s="46"/>
+      <c r="F150" s="46"/>
+      <c r="G150" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H150" s="46"/>
+      <c r="I150" s="46"/>
+      <c r="J150" s="46"/>
+      <c r="K150" s="46"/>
+      <c r="L150" s="48"/>
+      <c r="M150" s="48"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B151" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C151" s="49" t="s">
         <v>133</v>
@@ -6601,24 +6588,40 @@
       <c r="D151" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E151" s="51"/>
-      <c r="F151" s="51"/>
-      <c r="G151" s="51"/>
-      <c r="H151" s="51"/>
-      <c r="I151" s="51"/>
+      <c r="E151" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I151" s="49" t="s">
+        <v>4</v>
+      </c>
       <c r="J151" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="K151" s="51"/>
-      <c r="L151" s="50"/>
-      <c r="M151" s="50"/>
+      <c r="K151" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="L151" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M151" s="49" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B152" s="49" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="C152" s="49" t="s">
         <v>133</v>
@@ -6631,7 +6634,9 @@
       <c r="G152" s="51"/>
       <c r="H152" s="51"/>
       <c r="I152" s="51"/>
-      <c r="J152" s="51"/>
+      <c r="J152" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="K152" s="51"/>
       <c r="L152" s="50"/>
       <c r="M152" s="50"/>
@@ -6641,7 +6646,7 @@
         <v>218</v>
       </c>
       <c r="B153" s="49" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="C153" s="49" t="s">
         <v>133</v>
@@ -6664,7 +6669,7 @@
         <v>218</v>
       </c>
       <c r="B154" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C154" s="49" t="s">
         <v>133</v>
@@ -6676,9 +6681,7 @@
       <c r="F154" s="51"/>
       <c r="G154" s="51"/>
       <c r="H154" s="51"/>
-      <c r="I154" s="49" t="s">
-        <v>133</v>
-      </c>
+      <c r="I154" s="51"/>
       <c r="J154" s="51"/>
       <c r="K154" s="51"/>
       <c r="L154" s="50"/>
@@ -6689,7 +6692,7 @@
         <v>218</v>
       </c>
       <c r="B155" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C155" s="49" t="s">
         <v>133</v>
@@ -6700,10 +6703,10 @@
       <c r="E155" s="51"/>
       <c r="F155" s="51"/>
       <c r="G155" s="51"/>
-      <c r="H155" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="I155" s="51"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="J155" s="51"/>
       <c r="K155" s="51"/>
       <c r="L155" s="50"/>
@@ -6714,7 +6717,7 @@
         <v>218</v>
       </c>
       <c r="B156" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C156" s="49" t="s">
         <v>133</v>
@@ -6724,10 +6727,10 @@
       </c>
       <c r="E156" s="51"/>
       <c r="F156" s="51"/>
-      <c r="G156" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H156" s="51"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="I156" s="51"/>
       <c r="J156" s="51"/>
       <c r="K156" s="51"/>
@@ -6735,77 +6738,77 @@
       <c r="M156" s="50"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="52" t="s">
+      <c r="A157" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="B157" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C157" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="J157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="K157" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="L157" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="M157" s="54" t="s">
-        <v>4</v>
-      </c>
+      <c r="B157" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" s="51"/>
+      <c r="F157" s="51"/>
+      <c r="G157" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H157" s="51"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="51"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="52" t="s">
         <v>218</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D158" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E158" s="54"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
-      <c r="I158" s="54"/>
-      <c r="J158" s="54"/>
+      <c r="D158" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E158" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H158" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J158" s="54" t="s">
+        <v>4</v>
+      </c>
       <c r="K158" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="L158" s="55"/>
-      <c r="M158" s="55"/>
+      <c r="L158" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M158" s="54" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="52" t="s">
         <v>218</v>
       </c>
       <c r="B159" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C159" s="52" t="s">
         <v>133</v>
@@ -6818,10 +6821,10 @@
       <c r="G159" s="54"/>
       <c r="H159" s="54"/>
       <c r="I159" s="54"/>
-      <c r="J159" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="K159" s="54"/>
+      <c r="J159" s="54"/>
+      <c r="K159" s="54" t="s">
+        <v>133</v>
+      </c>
       <c r="L159" s="55"/>
       <c r="M159" s="55"/>
     </row>
@@ -6830,7 +6833,7 @@
         <v>218</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>133</v>
@@ -6842,10 +6845,10 @@
       <c r="F160" s="54"/>
       <c r="G160" s="54"/>
       <c r="H160" s="54"/>
-      <c r="I160" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="J160" s="54"/>
+      <c r="I160" s="54"/>
+      <c r="J160" s="52" t="s">
+        <v>133</v>
+      </c>
       <c r="K160" s="54"/>
       <c r="L160" s="55"/>
       <c r="M160" s="55"/>
@@ -6855,7 +6858,7 @@
         <v>218</v>
       </c>
       <c r="B161" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C161" s="52" t="s">
         <v>133</v>
@@ -6866,10 +6869,10 @@
       <c r="E161" s="54"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54"/>
-      <c r="H161" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="I161" s="54"/>
+      <c r="H161" s="54"/>
+      <c r="I161" s="52" t="s">
+        <v>133</v>
+      </c>
       <c r="J161" s="54"/>
       <c r="K161" s="54"/>
       <c r="L161" s="55"/>
@@ -6880,7 +6883,7 @@
         <v>218</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>133</v>
@@ -6890,10 +6893,10 @@
       </c>
       <c r="E162" s="54"/>
       <c r="F162" s="54"/>
-      <c r="G162" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H162" s="54"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="52" t="s">
+        <v>133</v>
+      </c>
       <c r="I162" s="54"/>
       <c r="J162" s="54"/>
       <c r="K162" s="54"/>
@@ -6901,77 +6904,77 @@
       <c r="M162" s="55"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="56" t="s">
+      <c r="A163" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B163" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C163" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D163" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="H163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="K163" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="L163" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="M163" s="58" t="s">
-        <v>4</v>
-      </c>
+      <c r="B163" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C163" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D163" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E163" s="54"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H163" s="54"/>
+      <c r="I163" s="54"/>
+      <c r="J163" s="54"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="55"/>
+      <c r="M163" s="55"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="56" t="s">
         <v>218</v>
       </c>
       <c r="B164" s="56" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C164" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="D164" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="E164" s="58"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="58"/>
-      <c r="H164" s="58"/>
-      <c r="I164" s="58"/>
-      <c r="J164" s="58"/>
+      <c r="D164" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H164" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J164" s="58" t="s">
+        <v>4</v>
+      </c>
       <c r="K164" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="L164" s="59"/>
-      <c r="M164" s="59"/>
+      <c r="L164" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M164" s="58" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="56" t="s">
         <v>218</v>
       </c>
       <c r="B165" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C165" s="56" t="s">
         <v>133</v>
@@ -6984,10 +6987,10 @@
       <c r="G165" s="58"/>
       <c r="H165" s="58"/>
       <c r="I165" s="58"/>
-      <c r="J165" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="K165" s="58"/>
+      <c r="J165" s="58"/>
+      <c r="K165" s="58" t="s">
+        <v>133</v>
+      </c>
       <c r="L165" s="59"/>
       <c r="M165" s="59"/>
     </row>
@@ -6996,7 +6999,7 @@
         <v>218</v>
       </c>
       <c r="B166" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C166" s="56" t="s">
         <v>133</v>
@@ -7008,10 +7011,10 @@
       <c r="F166" s="58"/>
       <c r="G166" s="58"/>
       <c r="H166" s="58"/>
-      <c r="I166" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="J166" s="58"/>
+      <c r="I166" s="58"/>
+      <c r="J166" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="K166" s="58"/>
       <c r="L166" s="59"/>
       <c r="M166" s="59"/>
@@ -7021,7 +7024,7 @@
         <v>218</v>
       </c>
       <c r="B167" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C167" s="56" t="s">
         <v>133</v>
@@ -7032,10 +7035,10 @@
       <c r="E167" s="58"/>
       <c r="F167" s="58"/>
       <c r="G167" s="58"/>
-      <c r="H167" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="I167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="J167" s="58"/>
       <c r="K167" s="58"/>
       <c r="L167" s="59"/>
@@ -7046,7 +7049,7 @@
         <v>218</v>
       </c>
       <c r="B168" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C168" s="56" t="s">
         <v>133</v>
@@ -7056,10 +7059,10 @@
       </c>
       <c r="E168" s="58"/>
       <c r="F168" s="58"/>
-      <c r="G168" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="H168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="I168" s="58"/>
       <c r="J168" s="58"/>
       <c r="K168" s="58"/>
@@ -7067,90 +7070,90 @@
       <c r="M168" s="59"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="B169" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="C169" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D169" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="E169" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="F169" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="G169" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="H169" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="I169" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="J169" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="K169" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="L169" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="M169" s="65" t="s">
-        <v>2</v>
-      </c>
+      <c r="A169" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C169" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H169" s="58"/>
+      <c r="I169" s="58"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="58"/>
+      <c r="L169" s="59"/>
+      <c r="M169" s="59"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="65" t="s">
         <v>242</v>
       </c>
       <c r="B170" s="65" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C170" s="66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D170" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="E170" s="66"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="66"/>
-      <c r="H170" s="66"/>
+        <v>247</v>
+      </c>
+      <c r="E170" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="G170" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H170" s="66" t="s">
+        <v>2</v>
+      </c>
       <c r="I170" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="J170" s="66"/>
-      <c r="K170" s="66"/>
-      <c r="L170" s="65"/>
-      <c r="M170" s="65"/>
+        <v>247</v>
+      </c>
+      <c r="J170" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="K170" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="L170" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="M170" s="65" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="65" t="s">
         <v>242</v>
       </c>
       <c r="B171" s="65" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C171" s="66" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="D171" s="66" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="E171" s="66"/>
       <c r="F171" s="66"/>
       <c r="G171" s="66"/>
       <c r="H171" s="66"/>
       <c r="I171" s="66" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="J171" s="66"/>
       <c r="K171" s="66"/>
@@ -7162,21 +7165,21 @@
         <v>242</v>
       </c>
       <c r="B172" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C172" s="66" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D172" s="66" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E172" s="66"/>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
-      <c r="H172" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="I172" s="66"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="66" t="s">
+        <v>4</v>
+      </c>
       <c r="J172" s="66"/>
       <c r="K172" s="66"/>
       <c r="L172" s="65"/>
@@ -7187,7 +7190,7 @@
         <v>242</v>
       </c>
       <c r="B173" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C173" s="66" t="s">
         <v>133</v>
@@ -7197,10 +7200,10 @@
       </c>
       <c r="E173" s="66"/>
       <c r="F173" s="66"/>
-      <c r="G173" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="H173" s="66"/>
+      <c r="G173" s="66"/>
+      <c r="H173" s="66" t="s">
+        <v>133</v>
+      </c>
       <c r="I173" s="66"/>
       <c r="J173" s="66"/>
       <c r="K173" s="66"/>
@@ -7208,92 +7211,92 @@
       <c r="M173" s="65"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="B174" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="C174" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="D174" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="E174" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F174" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G174" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="H174" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="I174" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="J174" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="K174" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="L174" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="M174" s="67" t="s">
-        <v>2</v>
-      </c>
+      <c r="A174" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C174" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E174" s="66"/>
+      <c r="F174" s="66"/>
+      <c r="G174" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H174" s="66"/>
+      <c r="I174" s="66"/>
+      <c r="J174" s="66"/>
+      <c r="K174" s="66"/>
+      <c r="L174" s="65"/>
+      <c r="M174" s="65"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="67" t="s">
         <v>261</v>
       </c>
       <c r="B175" s="67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C175" s="68" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D175" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E175" s="68"/>
-      <c r="F175" s="68"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="68"/>
+        <v>255</v>
+      </c>
+      <c r="E175" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G175" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H175" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I175" s="68" t="s">
+        <v>2</v>
+      </c>
       <c r="J175" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="K175" s="68"/>
-      <c r="L175" s="67"/>
-      <c r="M175" s="67"/>
+        <v>255</v>
+      </c>
+      <c r="K175" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="L175" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="M175" s="67" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="67" t="s">
         <v>261</v>
       </c>
       <c r="B176" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C176" s="68" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D176" s="68" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E176" s="68"/>
       <c r="F176" s="68"/>
       <c r="G176" s="68"/>
       <c r="H176" s="68"/>
-      <c r="I176" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="J176" s="68"/>
+      <c r="I176" s="68"/>
+      <c r="J176" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="K176" s="68"/>
       <c r="L176" s="67"/>
       <c r="M176" s="67"/>
@@ -7303,7 +7306,7 @@
         <v>261</v>
       </c>
       <c r="B177" s="67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C177" s="68" t="s">
         <v>133</v>
@@ -7314,10 +7317,10 @@
       <c r="E177" s="68"/>
       <c r="F177" s="68"/>
       <c r="G177" s="68"/>
-      <c r="H177" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="I177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="68" t="s">
+        <v>133</v>
+      </c>
       <c r="J177" s="68"/>
       <c r="K177" s="68"/>
       <c r="L177" s="67"/>
@@ -7328,7 +7331,7 @@
         <v>261</v>
       </c>
       <c r="B178" s="67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C178" s="68" t="s">
         <v>133</v>
@@ -7338,10 +7341,10 @@
       </c>
       <c r="E178" s="68"/>
       <c r="F178" s="68"/>
-      <c r="G178" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="68" t="s">
+        <v>133</v>
+      </c>
       <c r="I178" s="68"/>
       <c r="J178" s="68"/>
       <c r="K178" s="68"/>
@@ -7349,92 +7352,92 @@
       <c r="M178" s="67"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="B179" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C179" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D179" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="E179" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G179" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="H179" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="I179" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="J179" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="K179" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="L179" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="M179" s="69" t="s">
-        <v>2</v>
-      </c>
+      <c r="A179" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="C179" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D179" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" s="68"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H179" s="68"/>
+      <c r="I179" s="68"/>
+      <c r="J179" s="68"/>
+      <c r="K179" s="68"/>
+      <c r="L179" s="67"/>
+      <c r="M179" s="67"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="69" t="s">
         <v>262</v>
       </c>
       <c r="B180" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C180" s="70" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D180" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E180" s="70"/>
-      <c r="F180" s="70"/>
-      <c r="G180" s="70"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="70"/>
+        <v>255</v>
+      </c>
+      <c r="E180" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G180" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I180" s="70" t="s">
+        <v>2</v>
+      </c>
       <c r="J180" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="K180" s="70"/>
-      <c r="L180" s="69"/>
-      <c r="M180" s="69"/>
+        <v>255</v>
+      </c>
+      <c r="K180" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="L180" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M180" s="69" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="69" t="s">
         <v>262</v>
       </c>
       <c r="B181" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C181" s="70" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D181" s="70" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E181" s="70"/>
       <c r="F181" s="70"/>
       <c r="G181" s="70"/>
       <c r="H181" s="70"/>
-      <c r="I181" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="J181" s="70"/>
+      <c r="I181" s="70"/>
+      <c r="J181" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="K181" s="70"/>
       <c r="L181" s="69"/>
       <c r="M181" s="69"/>
@@ -7444,7 +7447,7 @@
         <v>262</v>
       </c>
       <c r="B182" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C182" s="70" t="s">
         <v>133</v>
@@ -7455,10 +7458,10 @@
       <c r="E182" s="70"/>
       <c r="F182" s="70"/>
       <c r="G182" s="70"/>
-      <c r="H182" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="I182" s="70"/>
+      <c r="H182" s="70"/>
+      <c r="I182" s="70" t="s">
+        <v>133</v>
+      </c>
       <c r="J182" s="70"/>
       <c r="K182" s="70"/>
       <c r="L182" s="69"/>
@@ -7469,7 +7472,7 @@
         <v>262</v>
       </c>
       <c r="B183" s="69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C183" s="70" t="s">
         <v>133</v>
@@ -7479,10 +7482,10 @@
       </c>
       <c r="E183" s="70"/>
       <c r="F183" s="70"/>
-      <c r="G183" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70" t="s">
+        <v>133</v>
+      </c>
       <c r="I183" s="70"/>
       <c r="J183" s="70"/>
       <c r="K183" s="70"/>
@@ -7490,92 +7493,92 @@
       <c r="M183" s="69"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="B184" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="C184" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="D184" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="E184" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="F184" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="G184" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="H184" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="I184" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="J184" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="K184" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="L184" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="M184" s="71" t="s">
-        <v>2</v>
-      </c>
+      <c r="A184" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184" s="70"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="H184" s="70"/>
+      <c r="I184" s="70"/>
+      <c r="J184" s="70"/>
+      <c r="K184" s="70"/>
+      <c r="L184" s="69"/>
+      <c r="M184" s="69"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="71" t="s">
         <v>263</v>
       </c>
       <c r="B185" s="72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C185" s="72" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D185" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
+        <v>143</v>
+      </c>
+      <c r="E185" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H185" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" s="72" t="s">
+        <v>2</v>
+      </c>
       <c r="J185" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="K185" s="72"/>
-      <c r="L185" s="71"/>
-      <c r="M185" s="71"/>
+        <v>143</v>
+      </c>
+      <c r="K185" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="L185" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="M185" s="71" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="71" t="s">
         <v>263</v>
       </c>
       <c r="B186" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C186" s="72" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D186" s="72" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E186" s="72"/>
       <c r="F186" s="72"/>
       <c r="G186" s="72"/>
       <c r="H186" s="72"/>
-      <c r="I186" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="J186" s="72"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72" t="s">
+        <v>4</v>
+      </c>
       <c r="K186" s="72"/>
       <c r="L186" s="71"/>
       <c r="M186" s="71"/>
@@ -7585,7 +7588,7 @@
         <v>263</v>
       </c>
       <c r="B187" s="72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C187" s="72" t="s">
         <v>133</v>
@@ -7596,10 +7599,10 @@
       <c r="E187" s="72"/>
       <c r="F187" s="72"/>
       <c r="G187" s="72"/>
-      <c r="H187" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="I187" s="72"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="72" t="s">
+        <v>133</v>
+      </c>
       <c r="J187" s="72"/>
       <c r="K187" s="72"/>
       <c r="L187" s="71"/>
@@ -7610,7 +7613,7 @@
         <v>263</v>
       </c>
       <c r="B188" s="72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C188" s="72" t="s">
         <v>133</v>
@@ -7620,10 +7623,10 @@
       </c>
       <c r="E188" s="72"/>
       <c r="F188" s="72"/>
-      <c r="G188" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H188" s="72"/>
+      <c r="G188" s="72"/>
+      <c r="H188" s="72" t="s">
+        <v>133</v>
+      </c>
       <c r="I188" s="72"/>
       <c r="J188" s="72"/>
       <c r="K188" s="72"/>
@@ -7631,92 +7634,92 @@
       <c r="M188" s="71"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="B189" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="C189" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D189" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="E189" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="F189" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="G189" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="H189" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="I189" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="J189" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="K189" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="L189" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="M189" s="73" t="s">
-        <v>2</v>
-      </c>
+      <c r="A189" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="B189" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="C189" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D189" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H189" s="72"/>
+      <c r="I189" s="72"/>
+      <c r="J189" s="72"/>
+      <c r="K189" s="72"/>
+      <c r="L189" s="71"/>
+      <c r="M189" s="71"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B190" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C190" s="74" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="D190" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="74"/>
-      <c r="F190" s="74"/>
-      <c r="G190" s="74"/>
-      <c r="H190" s="74"/>
-      <c r="I190" s="74"/>
+        <v>143</v>
+      </c>
+      <c r="E190" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G190" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H190" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="I190" s="74" t="s">
+        <v>2</v>
+      </c>
       <c r="J190" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="K190" s="74"/>
-      <c r="L190" s="73"/>
-      <c r="M190" s="73"/>
+        <v>143</v>
+      </c>
+      <c r="K190" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="L190" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="M190" s="73" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="73" t="s">
         <v>269</v>
       </c>
       <c r="B191" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C191" s="74" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="D191" s="74" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E191" s="74"/>
       <c r="F191" s="74"/>
       <c r="G191" s="74"/>
       <c r="H191" s="74"/>
-      <c r="I191" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="J191" s="74"/>
+      <c r="I191" s="74"/>
+      <c r="J191" s="74" t="s">
+        <v>4</v>
+      </c>
       <c r="K191" s="74"/>
       <c r="L191" s="73"/>
       <c r="M191" s="73"/>
@@ -7726,7 +7729,7 @@
         <v>269</v>
       </c>
       <c r="B192" s="74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C192" s="74" t="s">
         <v>133</v>
@@ -7737,10 +7740,10 @@
       <c r="E192" s="74"/>
       <c r="F192" s="74"/>
       <c r="G192" s="74"/>
-      <c r="H192" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="I192" s="74"/>
+      <c r="H192" s="74"/>
+      <c r="I192" s="74" t="s">
+        <v>133</v>
+      </c>
       <c r="J192" s="74"/>
       <c r="K192" s="74"/>
       <c r="L192" s="73"/>
@@ -7751,7 +7754,7 @@
         <v>269</v>
       </c>
       <c r="B193" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C193" s="74" t="s">
         <v>133</v>
@@ -7761,69 +7764,53 @@
       </c>
       <c r="E193" s="74"/>
       <c r="F193" s="74"/>
-      <c r="G193" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H193" s="74"/>
+      <c r="G193" s="74"/>
+      <c r="H193" s="74" t="s">
+        <v>133</v>
+      </c>
       <c r="I193" s="74"/>
       <c r="J193" s="74"/>
       <c r="K193" s="74"/>
       <c r="L193" s="73"/>
       <c r="M193" s="73"/>
     </row>
-    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="B194" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="C194" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="D194" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="E194" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="F194" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="G194" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="H194" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="I194" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="J194" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="K194" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="L194" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="M194" s="75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="B194" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C194" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D194" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E194" s="74"/>
+      <c r="F194" s="74"/>
+      <c r="G194" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="H194" s="74"/>
+      <c r="I194" s="74"/>
+      <c r="J194" s="74"/>
+      <c r="K194" s="74"/>
+      <c r="L194" s="73"/>
+      <c r="M194" s="73"/>
+    </row>
+    <row r="195" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="75" t="s">
         <v>275</v>
       </c>
       <c r="B195" s="75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C195" s="76" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D195" s="76" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E195" s="75" t="s">
         <v>2</v>
@@ -7832,16 +7819,16 @@
         <v>2</v>
       </c>
       <c r="G195" s="75" t="s">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="H195" s="75" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="I195" s="75" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="J195" s="75" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="K195" s="75" t="s">
         <v>279</v>
@@ -7854,44 +7841,44 @@
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="B196" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="C196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="E196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="G196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="H196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="I196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="J196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="K196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="L196" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="M196" s="78" t="s">
-        <v>189</v>
+      <c r="A196" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="B196" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C196" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="D196" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="E196" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="G196" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H196" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="I196" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="J196" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="K196" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="L196" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="M196" s="75" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -7899,40 +7886,40 @@
         <v>294</v>
       </c>
       <c r="B197" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="D197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="E197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="F197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="G197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="H197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="I197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="J197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="K197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="L197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="M197" s="78" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -7940,39 +7927,80 @@
         <v>294</v>
       </c>
       <c r="B198" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="I198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="J198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="K198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="L198" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="M198" s="78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="B199" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="C198" s="78" t="s">
+      <c r="C199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="D198" s="78" t="s">
+      <c r="D199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="E198" s="78" t="s">
+      <c r="E199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="F198" s="78" t="s">
+      <c r="F199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="G198" s="78" t="s">
+      <c r="G199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="H198" s="78" t="s">
+      <c r="H199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="I198" s="78" t="s">
+      <c r="I199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="J198" s="78" t="s">
+      <c r="J199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="K198" s="78" t="s">
+      <c r="K199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="L198" s="78" t="s">
+      <c r="L199" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="M198" s="78" t="s">
+      <c r="M199" s="78" t="s">
         <v>241</v>
       </c>
     </row>
